--- a/Tests Integration.xlsx
+++ b/Tests Integration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\exos\16.TP_NODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tetiana\Documents\IMIE\26-Tests\REDIR-CDPN-DL17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -41,21 +41,6 @@
     <t>Résultat attendu</t>
   </si>
   <si>
-    <t>bob@gmail.com</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>email non existant</t>
-  </si>
-  <si>
-    <t>email déjà existant</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>Ab!2t</t>
   </si>
   <si>
@@ -66,13 +51,124 @@
   </si>
   <si>
     <t>VYJFUKYlkjfgd15643g51d{#[{[</t>
+  </si>
+  <si>
+    <t>Test email non existant</t>
+  </si>
+  <si>
+    <t>insertUser(emal, password)</t>
+  </si>
+  <si>
+    <t>Test email déjà existant</t>
+  </si>
+  <si>
+    <t>/register</t>
+  </si>
+  <si>
+    <t>bob@gmail.com/ Abc1!</t>
+  </si>
+  <si>
+    <t>bob@gmail.com/Abc1!</t>
+  </si>
+  <si>
+    <t>/connect</t>
+  </si>
+  <si>
+    <t>findUserByEmail(email)</t>
+  </si>
+  <si>
+    <t>Test email et mot de pass correct</t>
+  </si>
+  <si>
+    <t>Test mot de pass incorrect</t>
+  </si>
+  <si>
+    <t>test@bla.com/ Abc2!</t>
+  </si>
+  <si>
+    <t>Message de type Error : "Cette email exists déjà"</t>
+  </si>
+  <si>
+    <t>Message de type Success + Redirection vers la page login : /connect</t>
+  </si>
+  <si>
+    <t>Message de type Success + Redirection vers la page d'accueil : /get-urls</t>
+  </si>
+  <si>
+    <t>Message de type Error : "Email incorrect"</t>
+  </si>
+  <si>
+    <t>Message de type Error: "Mot de pass incorrect"</t>
+  </si>
+  <si>
+    <t>/add-url</t>
+  </si>
+  <si>
+    <t>insertUrl(url)</t>
+  </si>
+  <si>
+    <t>Test insert url</t>
+  </si>
+  <si>
+    <t>http://google.fr</t>
+  </si>
+  <si>
+    <t>Test url dupliquée</t>
+  </si>
+  <si>
+    <t>Message de Type Error : "Cette url exists déjà dans votre list"</t>
+  </si>
+  <si>
+    <t>findUrlByUrl(url)</t>
+  </si>
+  <si>
+    <t>/remove-url</t>
+  </si>
+  <si>
+    <t>Test delete url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirection vers /get-urls, url a disparue </t>
+  </si>
+  <si>
+    <t>Redirection vers /get-urls, url a apparue sur la table</t>
+  </si>
+  <si>
+    <t>deleteUrl(url)</t>
+  </si>
+  <si>
+    <t>/get-urls</t>
+  </si>
+  <si>
+    <t>findAllUrlsByUser(user)</t>
+  </si>
+  <si>
+    <t>Test get urls</t>
+  </si>
+  <si>
+    <t>Url http://google.fr a apparue dans la list</t>
+  </si>
+  <si>
+    <t>Model et BDD</t>
+  </si>
+  <si>
+    <t>Test get user</t>
+  </si>
+  <si>
+    <t>findUserById(userId)</t>
+  </si>
+  <si>
+    <t>Service et Model</t>
+  </si>
+  <si>
+    <t>minification des urls...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +192,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,12 +238,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,9 +301,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,22 +631,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -477,59 +663,264 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="C17" r:id="rId6"/>
+    <hyperlink ref="C21" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests Integration.xlsx
+++ b/Tests Integration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tetiana\Documents\IMIE\26-Tests\REDIR-CDPN-DL17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stax\Google Drive\IMIE\COURS\28  - STRATEGIE DE TESTS\projet\REDIR-CDPN-DL17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tests d'intégrations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -44,21 +44,9 @@
     <t>Ab!2t</t>
   </si>
   <si>
-    <t>Test password invalide (pas chiffré)</t>
-  </si>
-  <si>
-    <t>passwordHash()</t>
-  </si>
-  <si>
-    <t>VYJFUKYlkjfgd15643g51d{#[{[</t>
-  </si>
-  <si>
     <t>Test email non existant</t>
   </si>
   <si>
-    <t>insertUser(emal, password)</t>
-  </si>
-  <si>
     <t>Test email déjà existant</t>
   </si>
   <si>
@@ -77,12 +65,6 @@
     <t>findUserByEmail(email)</t>
   </si>
   <si>
-    <t>Test email et mot de pass correct</t>
-  </si>
-  <si>
-    <t>Test mot de pass incorrect</t>
-  </si>
-  <si>
     <t>test@bla.com/ Abc2!</t>
   </si>
   <si>
@@ -104,9 +86,6 @@
     <t>/add-url</t>
   </si>
   <si>
-    <t>insertUrl(url)</t>
-  </si>
-  <si>
     <t>Test insert url</t>
   </si>
   <si>
@@ -116,12 +95,6 @@
     <t>Test url dupliquée</t>
   </si>
   <si>
-    <t>Message de Type Error : "Cette url exists déjà dans votre list"</t>
-  </si>
-  <si>
-    <t>findUrlByUrl(url)</t>
-  </si>
-  <si>
     <t>/remove-url</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>Redirection vers /get-urls, url a apparue sur la table</t>
   </si>
   <si>
-    <t>deleteUrl(url)</t>
-  </si>
-  <si>
     <t>/get-urls</t>
   </si>
   <si>
@@ -149,9 +119,6 @@
     <t>Url http://google.fr a apparue dans la list</t>
   </si>
   <si>
-    <t>Model et BDD</t>
-  </si>
-  <si>
     <t>Test get user</t>
   </si>
   <si>
@@ -162,12 +129,87 @@
   </si>
   <si>
     <t>minification des urls...</t>
+  </si>
+  <si>
+    <t>Model  BDD et Services</t>
+  </si>
+  <si>
+    <t>passwordHash(password)</t>
+  </si>
+  <si>
+    <t>insertUser(email, password)</t>
+  </si>
+  <si>
+    <t>Test password correctement inséré dans BDD</t>
+  </si>
+  <si>
+    <t>2$fghjklmdfghjkluytgyuiopoiuygtfhjkloiutyghjki</t>
+  </si>
+  <si>
+    <t>Test password incorrectement inséré dans BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message d'erreur: </t>
+  </si>
+  <si>
+    <t>Test email et mot de passe corrects</t>
+  </si>
+  <si>
+    <t>Test mot de passe incorrect</t>
+  </si>
+  <si>
+    <t>Non saisie de l'email</t>
+  </si>
+  <si>
+    <t>Non saisie du mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bob@gmail.com/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abc1!</t>
+  </si>
+  <si>
+    <t>Message de type error : "veuillez saisir tous les champs"</t>
+  </si>
+  <si>
+    <t>Aucun champ saisi</t>
+  </si>
+  <si>
+    <t>stockage en session du user</t>
+  </si>
+  <si>
+    <t>localStorage.setUser(user)</t>
+  </si>
+  <si>
+    <t>localStorage.getUser(user)</t>
+  </si>
+  <si>
+    <t>"Bienvenue UserName" en haut de page</t>
+  </si>
+  <si>
+    <t>Redirection vers /get-urls + "Bienvenue User" en haut de page de get-urls</t>
+  </si>
+  <si>
+    <t>insertUrl(url,user)</t>
+  </si>
+  <si>
+    <t>Message de Type Error : "Cette url existe déjà dans votre liste"</t>
+  </si>
+  <si>
+    <t>findUrlByUrl(url,user)</t>
+  </si>
+  <si>
+    <t>deleteUrl(url,user)</t>
+  </si>
+  <si>
+    <t>Vérifier user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,9 +364,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
@@ -665,7 +716,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -674,7 +725,7 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -686,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,16 +754,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -720,22 +771,39 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -747,16 +815,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,146 +849,239 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F17:F23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C11" r:id="rId3"/>
     <hyperlink ref="C12" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="C17" r:id="rId6"/>
-    <hyperlink ref="C21" r:id="rId7"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests Integration.xlsx
+++ b/Tests Integration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stax\Google Drive\IMIE\COURS\28  - STRATEGIE DE TESTS\projet\REDIR-CDPN-DL17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tetiana\Documents\IMIE\26-Tests\REDIR-CDPN-DL17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>test@bla.com/ Abc2!</t>
   </si>
   <si>
-    <t>Message de type Error : "Cette email exists déjà"</t>
-  </si>
-  <si>
     <t>Message de type Success + Redirection vers la page login : /connect</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Message de type Error : "Email incorrect"</t>
   </si>
   <si>
-    <t>Message de type Error: "Mot de pass incorrect"</t>
-  </si>
-  <si>
     <t>/add-url</t>
   </si>
   <si>
@@ -204,12 +198,18 @@
   </si>
   <si>
     <t>Vérifier user</t>
+  </si>
+  <si>
+    <t>Message de type Error : "Cette email existe déjà"</t>
+  </si>
+  <si>
+    <t>Message de type Error: "Mot de passe incorrect"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +369,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,10 +685,10 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
@@ -716,7 +716,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -743,10 +743,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -771,16 +771,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -788,16 +788,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -815,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -866,13 +866,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -883,13 +883,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -900,11 +900,11 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -915,61 +915,61 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -981,7 +981,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -991,26 +991,26 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1019,52 +1019,52 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
